--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\UIP\OSReframework\OfficeSamuraiREFramework 23.4\OfficeSamuraiREFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa_test02.ADICT\Documents\UiPath\SAP_NadawanieUprawnien\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C9277F-82B8-48C1-A797-0507CC13B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -165,13 +164,31 @@
   </si>
   <si>
     <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>"Shared"</t>
+  </si>
+  <si>
+    <t>"Nadawanie Uprawnień SAP"</t>
+  </si>
+  <si>
+    <t>"NadawanieDostepowSAP"</t>
+  </si>
+  <si>
+    <t>NUS_JiraUrl</t>
+  </si>
+  <si>
+    <t>NUS_JiraCredentials</t>
+  </si>
+  <si>
+    <t>Credentials for Jira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -195,13 +212,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,11 +250,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,10 +265,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="3">
+    <cellStyle name="Neutralny 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -601,7 +643,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -612,7 +654,9 @@
         <v>25</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
@@ -626,7 +670,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -634,7 +678,18 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:27" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:27" ht="14.25" customHeight="1"/>
@@ -1621,11 +1676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1695,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>35</v>
@@ -1835,10 +1890,10 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="b">
+      <c r="B17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C17" t="b">
+      <c r="C17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2823,11 +2878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2883,8 +2938,16 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:28" ht="14.25" customHeight="1"/>
